--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2853784.461994848</v>
+        <v>2851449.350792867</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>64.88143122080245</v>
+        <v>105.2636416850876</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>64.50612826256146</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>15.52257672202789</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>154.7368436099556</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>191.1874525866106</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>39.45885325319756</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>14.09020001492294</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>37.67376214905598</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>170.7304930065917</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991711</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395859</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893612</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>4.019807611472247</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>41.55695577161151</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1313.273607737845</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974333</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974333</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926588</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1768.949738926588</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1703.412939713657</v>
+        <v>1185.154965389927</v>
       </c>
       <c r="Y2" t="n">
-        <v>1313.273607737845</v>
+        <v>1185.154965389927</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425659</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.288414758779</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W4" t="n">
-        <v>1281.871244721818</v>
+        <v>638.3033838959707</v>
       </c>
       <c r="X4" t="n">
-        <v>1053.881693823801</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y4" t="n">
-        <v>833.0891146802707</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1412.134398099143</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C5" t="n">
-        <v>1043.171881158731</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D5" t="n">
-        <v>684.9061825519805</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="E5" t="n">
-        <v>684.9061825519805</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="F5" t="n">
-        <v>273.9202777623729</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400156</v>
+        <v>1913.458594606682</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400156</v>
+        <v>1560.689939336567</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139076</v>
+        <v>1187.224181075488</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163264</v>
+        <v>797.0848490996759</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4644,28 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143493</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>884.908532145821</v>
+        <v>932.4978103101</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>918.7469765594642</v>
+        <v>196.9593607670921</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4732,7 +4732,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4744,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1622.213594806899</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1622.213594806899</v>
+        <v>1150.699034738197</v>
       </c>
       <c r="V7" t="n">
-        <v>1367.529106601012</v>
+        <v>896.0145465323097</v>
       </c>
       <c r="W7" t="n">
-        <v>1367.529106601012</v>
+        <v>606.5973764953492</v>
       </c>
       <c r="X7" t="n">
-        <v>1139.539555702994</v>
+        <v>378.6078255973318</v>
       </c>
       <c r="Y7" t="n">
-        <v>918.7469765594642</v>
+        <v>378.6078255973318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1685.375546116517</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1316.413029176106</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>578.5476590249492</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4844,10 +4844,10 @@
         <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4884,7 +4884,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4960,16 +4960,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5057,31 +5057,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382113</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>472.9099533103044</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>823.4946010684511</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,31 +5273,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>506.2737913123343</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,19 +5413,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444888</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684175</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684175</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708873</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.395944601127</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>576.8388927589092</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310023</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2442.902671851501</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2260.047837506405</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>979.2799367326791</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>758.4873575891489</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6212,46 +6212,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273902</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,25 +6598,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>317.6151975578602</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6917,22 +6917,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7400,16 +7400,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>444.7013164925216</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>444.7013164925216</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>277.5052172074016</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>135.7933860495997</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8064,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>193.3273467878344</v>
+        <v>129.7511347056862</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780638</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019039</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431587</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>62.35543909864944</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>39.70888054695403</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.876258416</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584156</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.460138034</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380341</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380336</v>
-      </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442555</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="K2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442549</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.10570385408937e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403374</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744337</v>
+        <v>8727.256391744275</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744351</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744319</v>
+        <v>8727.256391744306</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744293</v>
+        <v>8727.256391744315</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744309</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
+        <v>8727.256391744337</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.2563917443</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8727.256391744306</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8727.256391744308</v>
+      </c>
+      <c r="O4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="L4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744295</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744268</v>
-      </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-665852.2328547135</v>
+        <v>-665852.2328547133</v>
       </c>
       <c r="C6" t="n">
-        <v>448899.5507212058</v>
+        <v>448899.5507212059</v>
       </c>
       <c r="D6" t="n">
-        <v>288884.0879732068</v>
+        <v>288884.0879732072</v>
       </c>
       <c r="E6" t="n">
-        <v>230633.6967212481</v>
+        <v>230598.9587958131</v>
       </c>
       <c r="F6" t="n">
-        <v>556046.1585286042</v>
+        <v>556011.4206031678</v>
       </c>
       <c r="G6" t="n">
-        <v>556046.1585286036</v>
+        <v>556011.4206031678</v>
       </c>
       <c r="H6" t="n">
-        <v>556046.1585286035</v>
+        <v>556011.420603168</v>
       </c>
       <c r="I6" t="n">
-        <v>556046.1585286036</v>
+        <v>556011.420603168</v>
       </c>
       <c r="J6" t="n">
-        <v>388440.9807186208</v>
+        <v>388406.2427931852</v>
       </c>
       <c r="K6" t="n">
-        <v>556046.1585286035</v>
+        <v>556011.420603168</v>
       </c>
       <c r="L6" t="n">
-        <v>507752.1885204127</v>
+        <v>507717.450594977</v>
       </c>
       <c r="M6" t="n">
-        <v>470991.1305930918</v>
+        <v>470956.3926676556</v>
       </c>
       <c r="N6" t="n">
-        <v>556046.1585286036</v>
+        <v>556011.4206031678</v>
       </c>
       <c r="O6" t="n">
-        <v>556046.1585286036</v>
+        <v>556011.420603168</v>
       </c>
       <c r="P6" t="n">
-        <v>556046.1585286036</v>
+        <v>556011.420603168</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.584832100039</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757586</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>304.8496694576666</v>
+        <v>264.4674589933815</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,22 +27585,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.6315150612666</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>210.1870786670092</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>256.8108591629983</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>15.47073239362319</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>127.7879678454303</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>206.658495982289</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>317.009279471627</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>240.1912326468617</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911111</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700509</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,28 +31282,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31318,7 +31318,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31367,10 +31367,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31379,7 +31379,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31440,19 +31440,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110996</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>402.2342772868849</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642907</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,19 +33029,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>584.5244463807084</v>
+        <v>520.9482342985601</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215487</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35027,16 +35027,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>522.015880398027</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35100,7 +35100,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312254</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396436</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>263.6798975070108</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782691</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
